--- a/uploads/1.xlsx
+++ b/uploads/1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/pemadanan/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erzanrosbrianto/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="2240" windowWidth="20500" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="20500" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>JAKARTA</t>
   </si>
@@ -51,6 +51,57 @@
   </si>
   <si>
     <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>TES DATA 2</t>
+  </si>
+  <si>
+    <t>IBU TES 3</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
+  </si>
+  <si>
+    <t>TES DATA 3</t>
+  </si>
+  <si>
+    <t>IBU TES 4</t>
+  </si>
+  <si>
+    <t>12/12/2019</t>
+  </si>
+  <si>
+    <t>TES DATA 4</t>
+  </si>
+  <si>
+    <t>IBU TES 5</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>TES DATA 5</t>
+  </si>
+  <si>
+    <t>IBU TES 6</t>
+  </si>
+  <si>
+    <t>12/12/2021</t>
+  </si>
+  <si>
+    <t>TES DATA 6</t>
+  </si>
+  <si>
+    <t>IBU TES 7</t>
+  </si>
+  <si>
+    <t>12/12/2022</t>
+  </si>
+  <si>
+    <t>9812093710KJH</t>
+  </si>
+  <si>
+    <t>98120937lkjlk1029</t>
   </si>
 </sst>
 </file>
@@ -383,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -449,6 +500,125 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>981209371025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>981209371026</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>981209371027</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>981209371028</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>981209371029</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
